--- a/document/ProjectUsing/SqlDataTableNotes/會員資料表/會員資料表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/會員資料表/會員資料表設計.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\StudyNotes\SqlStudyNotes\SqlDataTableNotes\會員資料表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\ProjectUsing\SqlDataTableNotes\會員資料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="會員相關" sheetId="4" r:id="rId1"/>
-    <sheet name="商品相關" sheetId="5" r:id="rId2"/>
+    <sheet name="使用者表" sheetId="8" r:id="rId1"/>
+    <sheet name="會員表" sheetId="4" r:id="rId2"/>
+    <sheet name="訂單表" sheetId="9" r:id="rId3"/>
+    <sheet name="商品表" sheetId="5" r:id="rId4"/>
+    <sheet name="商品表 (3)" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,7 +98,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(255)</t>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶狀態，1: 啟用，0: 禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密後的密碼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默認為當前時間, 之後可以再改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>members資料表(t_members)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -103,162 +142,30 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶狀態，1: 啟用，0: 禁用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密後的密碼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>當前</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默認為當前時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默認為當前時間, 之後可以再改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_password_hash </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_created_at </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_updated_at </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>members資料表(t_members)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_email</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_first_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_last_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_member_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_member_username</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_points</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>積分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>f_level</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成 "普通會員, 白銀會員, 鑽石會員"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_address資料表(t_member_address)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_address_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>address流水號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f_member_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>外鍵參照</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -271,119 +178,595 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>城市</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>州/省</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_state</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_country</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>tinyint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(101)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太長的email擋掉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_district</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_street </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_postalCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵遞區號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_addressId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_hash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberAccount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暱稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nickName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字越高, 等級越高, 方便擴充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberAddress資料表(t_memberAddress)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會話ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據行名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">流水號 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_description </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一串數字, 用來表示擁有的權限, 採用的方式是根據C# enum的設計</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暱稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶狀態，1: 啟用，0: 禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_sessionId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_rolePermission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>users資料表(t_users)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據行名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_hash </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(101)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密後的密碼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 + | + 64個字元=&gt;是salt + 相隔字元"|" + (salt+密碼)雜湊之後</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_roleId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>對應的腳色ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>roles資料表(t_roles)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_roleId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述腳色的用途</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>products資料表(t_products)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>product流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>varchar(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>國家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_is_default</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是默認地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>accounts資料表(t_accounts)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_account_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account流水號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_updated_at </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories資料表(t_categories)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據行名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_stockQuantity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_categoryId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:上架 ; 1:下架</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category流水號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f_member_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_account_type </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>f_categoryId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders資料表(t_orders)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_created_at </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默認為當前時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據行名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵參照</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_totalPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_itemId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_productId </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成 "1:普通會員, 2:白銀會員, 3:鑽石會員"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道, 巷弄, 門號, 樓層</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>給予較大寬容度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_recipientName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderItems資料表(t_orderItems)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_phone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>varchar(20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人電話號碼(允許國外)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_address</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>varchar(20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_account_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>類型 linepay/銀行/信用卡等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號持有人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可加銀行卡號以及信用卡卡號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>想用check</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>還是用tinyint分級就好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有根據特定加密法設置長度嗎?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>若設為預設地址, 則儲存到會員地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北屯區</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遼寧路一段376號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -562,9 +945,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -576,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,10 +1274,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -910,18 +1572,18 @@
     <col min="12" max="12" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,12 +1603,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -961,10 +1623,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -977,437 +1639,295 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>164</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
+      <c r="A21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4" t="s">
-        <v>61</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>162</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A17:F17"/>
+  <mergeCells count="2">
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1415,12 +1935,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+  <sheetPr codeName="工作表5"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1431,12 +1952,594 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1510,7 +2613,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
